--- a/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F7_dim30.xlsx
+++ b/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F7_dim30.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>1496.02878515</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1334.2658139</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1263.66762489</v>
+        <v>1262.25566111</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>1264.7112616</v>
@@ -1011,15 +1002,12 @@
         <v>1496.02878515</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1334.2658139</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1260.00235859</v>
+        <v>1258.51708948</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>986.3685565</v>
@@ -1172,15 +1160,12 @@
         <v>918.1893847</v>
       </c>
       <c r="AZ4" t="n">
-        <v>922.61368</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1015.13342887</v>
+        <v>1016.98382385</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>600</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>326.41605143</v>
@@ -1333,15 +1318,12 @@
         <v>297.68566041</v>
       </c>
       <c r="AZ5" t="n">
-        <v>346.91269238</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>376.12608848</v>
+        <v>376.7103564</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>1200</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>100.67774681</v>
@@ -1494,15 +1476,12 @@
         <v>70.32897633</v>
       </c>
       <c r="AZ6" t="n">
-        <v>90.61524393000001</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>132.98822874</v>
+        <v>133.83568844</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1799</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>30.06211203</v>
@@ -1655,15 +1634,12 @@
         <v>20.25394665</v>
       </c>
       <c r="AZ7" t="n">
-        <v>36.02590767</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>37.47371451</v>
+        <v>37.50267065</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>2399</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>11.40487787</v>
@@ -1816,15 +1792,12 @@
         <v>2.45328409</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5.04589611</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>8.81694407</v>
+        <v>8.892365030000001</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>2999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>3.38430158</v>
@@ -1977,15 +1950,12 @@
         <v>1.48897641</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.62457468</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>2.7133113</v>
+        <v>2.73508603</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>3599</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>1.61477958</v>
@@ -2138,15 +2108,12 @@
         <v>1.15405286</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.09611432</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>1.34978855</v>
+        <v>1.35486203</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>4199</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>1.14014614</v>
@@ -2299,15 +2266,12 @@
         <v>1.03980627</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.99309976</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>1.06512041</v>
+        <v>1.06656082</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>4798</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>1.03655565</v>
@@ -2460,15 +2424,12 @@
         <v>0.88123357</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.64463382</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.88577332</v>
+        <v>0.8905961100000001</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>5398</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>0.6978091</v>
@@ -2621,15 +2582,12 @@
         <v>0.57252861</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.32622317</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0.57991127</v>
+        <v>0.58498504</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>5998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0.31388744</v>
@@ -2782,10 +2740,7 @@
         <v>0.11031573</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.11136103</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0.24209275</v>
+        <v>0.24470739</v>
       </c>
     </row>
   </sheetData>
